--- a/isp_processed_data.xlsx
+++ b/isp_processed_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,232 +426,247 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>MSISDN</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>CUST_FULL_NAME</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>RC_RATE</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>SUBS_STATUS</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>CONTRACT_START_DT</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>CONTRACT_END_DT</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>REMAIN_DAYS</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>REMAIN_VALUE</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>CONTRACT_STATUS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>960000001</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>นายหมดอายุ แล้วครับ</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>599</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>45658</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>46022</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>-49</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-978.3666666666666</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>EXPIRED</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>960000002</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>บริษัท กำลังจะหมด (15วัน)</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>899</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="F3" s="1" t="n">
         <v>45703</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="G3" s="1" t="n">
         <v>46080</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>269.7</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>960000003</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ร้านค้า ยังเหลือเยอะ</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1200</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="F4" s="1" t="n">
         <v>45950</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="G4" s="1" t="n">
         <v>46387</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>316</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>12640</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>HEALTHY</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>960000004</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>นายพอดีเป๊ะ (วันนี้หมด)</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>449</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="F5" s="1" t="n">
         <v>45700</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="G5" s="1" t="n">
         <v>46065</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>-6</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-89.8</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>EXPIRED</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>960000005</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>บจก. เพิ่งเริ่มสัญญา</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>299</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="F6" s="1" t="n">
         <v>46023</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="G6" s="1" t="n">
         <v>46752</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>681</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>6787.3</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>HEALTHY</t>
         </is>
